--- a/xlsx/country_comparison/split_many_global_mean.xlsx
+++ b/xlsx/country_comparison/split_many_global_mean.xlsx
@@ -430,34 +430,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>16.2848451033568</v>
+        <v>17.0807429242204</v>
       </c>
       <c r="C2" t="n">
-        <v>21.3508917499082</v>
+        <v>18.1301185165159</v>
       </c>
       <c r="D2" t="n">
-        <v>22.5765955237255</v>
+        <v>20.5565333585276</v>
       </c>
       <c r="E2" t="n">
-        <v>12.9389312977099</v>
+        <v>13.8557038280747</v>
       </c>
       <c r="F2" t="n">
-        <v>21.9859580171948</v>
+        <v>21.8985082241482</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1139436159633</v>
+        <v>22.1058503276506</v>
       </c>
       <c r="H2" t="n">
-        <v>31.0592974706112</v>
+        <v>23.409174384043</v>
       </c>
       <c r="I2" t="n">
-        <v>21.1044238959285</v>
+        <v>14.7531378395069</v>
       </c>
       <c r="J2" t="n">
-        <v>14.2709227464484</v>
+        <v>16.8300371526334</v>
       </c>
       <c r="K2" t="n">
-        <v>8.47543775203027</v>
+        <v>17.470200568159</v>
       </c>
     </row>
     <row r="3">
@@ -465,34 +465,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6937175446432</v>
+        <v>18.4405964992571</v>
       </c>
       <c r="C3" t="n">
-        <v>20.9581864262748</v>
+        <v>19.5032342531731</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4844589264869</v>
+        <v>18.1340693000846</v>
       </c>
       <c r="E3" t="n">
-        <v>15.3525641025641</v>
+        <v>17.9074905953698</v>
       </c>
       <c r="F3" t="n">
-        <v>8.66685062745707</v>
+        <v>17.2802396808452</v>
       </c>
       <c r="G3" t="n">
-        <v>19.9199325351752</v>
+        <v>18.9822379577424</v>
       </c>
       <c r="H3" t="n">
-        <v>14.8935174766804</v>
+        <v>16.4092927572937</v>
       </c>
       <c r="I3" t="n">
-        <v>24.7886124764293</v>
+        <v>21.1349772681608</v>
       </c>
       <c r="J3" t="n">
-        <v>19.5096708545182</v>
+        <v>18.4656223614551</v>
       </c>
       <c r="K3" t="n">
-        <v>20.1255189160083</v>
+        <v>17.3339264592139</v>
       </c>
     </row>
     <row r="4">
@@ -500,34 +500,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>14.6051207447097</v>
+        <v>14.899947886219</v>
       </c>
       <c r="C4" t="n">
-        <v>15.4011919548442</v>
+        <v>16.9096404650099</v>
       </c>
       <c r="D4" t="n">
-        <v>16.9861337163861</v>
+        <v>17.8697720828647</v>
       </c>
       <c r="E4" t="n">
-        <v>12.463768115942</v>
+        <v>16.5063298627075</v>
       </c>
       <c r="F4" t="n">
-        <v>13.303278531438</v>
+        <v>14.976197956017</v>
       </c>
       <c r="G4" t="n">
-        <v>18.5919731097596</v>
+        <v>20.4540050075485</v>
       </c>
       <c r="H4" t="n">
-        <v>16.4164148295247</v>
+        <v>18.8106938394726</v>
       </c>
       <c r="I4" t="n">
-        <v>11.7176155702052</v>
+        <v>10.9954433093976</v>
       </c>
       <c r="J4" t="n">
-        <v>13.3730575369043</v>
+        <v>15.6095874202112</v>
       </c>
       <c r="K4" t="n">
-        <v>23.9191112229837</v>
+        <v>19.123101076186</v>
       </c>
     </row>
     <row r="5">
@@ -535,34 +535,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>21.3663648262661</v>
+        <v>17.6077165370507</v>
       </c>
       <c r="C5" t="n">
-        <v>18.1304080191294</v>
+        <v>17.6368251732405</v>
       </c>
       <c r="D5" t="n">
-        <v>17.7913625196973</v>
+        <v>17.8625054580574</v>
       </c>
       <c r="E5" t="n">
-        <v>14.5779220779221</v>
+        <v>14.1104443525526</v>
       </c>
       <c r="F5" t="n">
-        <v>11.5557225515042</v>
+        <v>16.3025568937356</v>
       </c>
       <c r="G5" t="n">
-        <v>18.2370347174378</v>
+        <v>19.0113244531712</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5775637127281</v>
+        <v>16.3120965369003</v>
       </c>
       <c r="I5" t="n">
-        <v>16.7275530739151</v>
+        <v>13.4188635575904</v>
       </c>
       <c r="J5" t="n">
-        <v>16.9301200548642</v>
+        <v>17.1452470883948</v>
       </c>
       <c r="K5" t="n">
-        <v>20.0254395219115</v>
+        <v>17.6301295558637</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_global_mean.xlsx
+++ b/xlsx/country_comparison/split_many_global_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,25 +32,25 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Global: Education and Healthcare in low-income countries</t>
@@ -424,145 +430,175 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>17.0807429242204</v>
+        <v>18.5820802110275</v>
       </c>
       <c r="C2" t="n">
-        <v>18.1301185165159</v>
+        <v>19.5433388869069</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5565333585276</v>
+        <v>17.1860296020143</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8557038280747</v>
+        <v>18.4088216404429</v>
       </c>
       <c r="F2" t="n">
-        <v>21.8985082241482</v>
+        <v>19.818563990037</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1058503276506</v>
+        <v>22.3196671679238</v>
       </c>
       <c r="H2" t="n">
-        <v>23.409174384043</v>
+        <v>24.1943763140344</v>
       </c>
       <c r="I2" t="n">
-        <v>14.7531378395069</v>
+        <v>18.3974341803098</v>
       </c>
       <c r="J2" t="n">
-        <v>16.8300371526334</v>
+        <v>20.9791784497811</v>
       </c>
       <c r="K2" t="n">
-        <v>17.470200568159</v>
+        <v>14.7168447541269</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21.2906279684643</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18.8157927911583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>18.4405964992571</v>
+        <v>18.2775615098406</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5032342531731</v>
+        <v>18.6833061988999</v>
       </c>
       <c r="D3" t="n">
-        <v>18.1340693000846</v>
+        <v>18.1032368372531</v>
       </c>
       <c r="E3" t="n">
-        <v>17.9074905953698</v>
+        <v>19.9652665557326</v>
       </c>
       <c r="F3" t="n">
-        <v>17.2802396808452</v>
+        <v>18.4768491708055</v>
       </c>
       <c r="G3" t="n">
-        <v>18.9822379577424</v>
+        <v>17.2467117399754</v>
       </c>
       <c r="H3" t="n">
-        <v>16.4092927572937</v>
+        <v>16.210725726805</v>
       </c>
       <c r="I3" t="n">
-        <v>21.1349772681608</v>
+        <v>20.4222649809054</v>
       </c>
       <c r="J3" t="n">
-        <v>18.4656223614551</v>
+        <v>18.7170006502281</v>
       </c>
       <c r="K3" t="n">
-        <v>17.3339264592139</v>
+        <v>17.7046170722847</v>
+      </c>
+      <c r="L3" t="n">
+        <v>19.6336316839714</v>
+      </c>
+      <c r="M3" t="n">
+        <v>17.7105595537485</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>14.899947886219</v>
+        <v>16.7238653560827</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9096404650099</v>
+        <v>16.4332355712248</v>
       </c>
       <c r="D4" t="n">
-        <v>17.8697720828647</v>
+        <v>14.4237243458191</v>
       </c>
       <c r="E4" t="n">
-        <v>16.5063298627075</v>
+        <v>16.5958620189816</v>
       </c>
       <c r="F4" t="n">
-        <v>14.976197956017</v>
+        <v>18.1019870829628</v>
       </c>
       <c r="G4" t="n">
-        <v>20.4540050075485</v>
+        <v>14.2384576095474</v>
       </c>
       <c r="H4" t="n">
-        <v>18.8106938394726</v>
+        <v>19.3237941638536</v>
       </c>
       <c r="I4" t="n">
-        <v>10.9954433093976</v>
+        <v>14.9129879392616</v>
       </c>
       <c r="J4" t="n">
-        <v>15.6095874202112</v>
+        <v>17.639977096944</v>
       </c>
       <c r="K4" t="n">
-        <v>19.123101076186</v>
+        <v>15.9777699018776</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20.5511153680026</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16.7227830705548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>17.6077165370507</v>
+        <v>16.2417157402536</v>
       </c>
       <c r="C5" t="n">
-        <v>17.6368251732405</v>
+        <v>17.2041871605458</v>
       </c>
       <c r="D5" t="n">
-        <v>17.8625054580574</v>
+        <v>17.4846630418904</v>
       </c>
       <c r="E5" t="n">
-        <v>14.1104443525526</v>
+        <v>18.7737072682762</v>
       </c>
       <c r="F5" t="n">
-        <v>16.3025568937356</v>
+        <v>18.0960670536168</v>
       </c>
       <c r="G5" t="n">
-        <v>19.0113244531712</v>
+        <v>17.1281660531501</v>
       </c>
       <c r="H5" t="n">
-        <v>16.3120965369003</v>
+        <v>14.9457121683135</v>
       </c>
       <c r="I5" t="n">
-        <v>13.4188635575904</v>
+        <v>16.2618759164225</v>
       </c>
       <c r="J5" t="n">
-        <v>17.1452470883948</v>
+        <v>16.9879596586077</v>
       </c>
       <c r="K5" t="n">
-        <v>17.6301295558637</v>
+        <v>14.0631639305587</v>
+      </c>
+      <c r="L5" t="n">
+        <v>19.2949694188511</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.5582453607054</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/split_many_global_mean.xlsx
+++ b/xlsx/country_comparison/split_many_global_mean.xlsx
@@ -442,7 +442,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>18.5820802110275</v>
+        <v>18.5840386333021</v>
       </c>
       <c r="C2" t="n">
         <v>19.5433388869069</v>
@@ -469,13 +469,13 @@
         <v>20.9791784497811</v>
       </c>
       <c r="K2" t="n">
-        <v>14.7168447541269</v>
+        <v>14.7145599857929</v>
       </c>
       <c r="L2" t="n">
         <v>21.2906279684643</v>
       </c>
       <c r="M2" t="n">
-        <v>18.8157927911583</v>
+        <v>18.8176682846185</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>18.2775615098406</v>
+        <v>18.2790863468141</v>
       </c>
       <c r="C3" t="n">
         <v>18.6833061988999</v>
@@ -510,13 +510,13 @@
         <v>18.7170006502281</v>
       </c>
       <c r="K3" t="n">
-        <v>17.7046170722847</v>
+        <v>17.7049808040103</v>
       </c>
       <c r="L3" t="n">
         <v>19.6336316839714</v>
       </c>
       <c r="M3" t="n">
-        <v>17.7105595537485</v>
+        <v>17.7140126023854</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>16.7238653560827</v>
+        <v>16.7223157348188</v>
       </c>
       <c r="C4" t="n">
         <v>16.4332355712248</v>
@@ -551,13 +551,13 @@
         <v>17.639977096944</v>
       </c>
       <c r="K4" t="n">
-        <v>15.9777699018776</v>
+        <v>15.9779234610467</v>
       </c>
       <c r="L4" t="n">
         <v>20.5511153680026</v>
       </c>
       <c r="M4" t="n">
-        <v>16.7227830705548</v>
+        <v>16.7126947567179</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2417157402536</v>
+        <v>16.2405917484416</v>
       </c>
       <c r="C5" t="n">
         <v>17.2041871605458</v>
@@ -592,13 +592,13 @@
         <v>16.9879596586077</v>
       </c>
       <c r="K5" t="n">
-        <v>14.0631639305587</v>
+        <v>14.0638042866307</v>
       </c>
       <c r="L5" t="n">
         <v>19.2949694188511</v>
       </c>
       <c r="M5" t="n">
-        <v>15.5582453607054</v>
+        <v>15.5556817545784</v>
       </c>
     </row>
   </sheetData>
